--- a/分数分布.xlsx
+++ b/分数分布.xlsx
@@ -24,49 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>penalty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scholarship</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>job</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>labor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>debt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>校内失信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内违纪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手商品买卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款发放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -115,6 +119,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -124,15 +285,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -415,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:I13"/>
+  <dimension ref="E2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -426,186 +620,191 @@
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="5:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0.2</v>
       </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+      <c r="I4" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>0.05</v>
       </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
+      <c r="I5" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
+        <v>200</v>
+      </c>
+      <c r="I6" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>0.1</v>
       </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="1">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>200</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
+        <v>200</v>
+      </c>
+      <c r="I7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0.05</v>
       </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="1">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H8">
-        <v>200</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
+      <c r="I8" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0.2</v>
       </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+      <c r="I9" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>0.2</v>
       </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="1">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10">
-        <v>200</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="1">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
+        <v>200</v>
+      </c>
+      <c r="I11" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0.2</v>
       </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="2">
-        <f>SUM(E4:E12)</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="array" ref="F13">SUM(E4:E12*F4:F12)</f>
-        <v>200</v>
-      </c>
-      <c r="H13">
-        <f t="array" ref="H13">SUM(I4:I12*H4:H12)</f>
-        <v>200</v>
-      </c>
-      <c r="I13" s="2">
-        <f>SUM(I4:I12)</f>
-        <v>1</v>
-      </c>
+    <row r="13" spans="5:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="12">
+        <v>200</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10">
+        <v>200</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
